--- a/results/descriptives_network.xlsx
+++ b/results/descriptives_network.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5119beb6994823d0/Utrecht/thesis/final_thesis/230426_0500_LIGHT_proj9106_25042023/LIGHT_proj9106_25042023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LIGHT_proj9106_20230809\part1\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_4EAA3126D8360CB08365C865DD58A87435626018" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB553AB7-1383-408F-A593-D5226F99FAB1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>layer</t>
   </si>
@@ -34,6 +33,18 @@
     <t>clustering</t>
   </si>
   <si>
+    <t>components</t>
+  </si>
+  <si>
+    <t>pct_largcomp</t>
+  </si>
+  <si>
+    <t>p05_degree</t>
+  </si>
+  <si>
+    <t>p05_degree_n</t>
+  </si>
+  <si>
     <t>mean_degree</t>
   </si>
   <si>
@@ -43,6 +54,12 @@
     <t>med_degree_n</t>
   </si>
   <si>
+    <t>p95_degree</t>
+  </si>
+  <si>
+    <t>p95_degree_n</t>
+  </si>
+  <si>
     <t>sd_degree</t>
   </si>
   <si>
@@ -59,24 +76,12 @@
   </si>
   <si>
     <t>aggregate</t>
-  </si>
-  <si>
-    <t>p05_degree</t>
-  </si>
-  <si>
-    <t>p05_degree_n</t>
-  </si>
-  <si>
-    <t>p95_degree</t>
-  </si>
-  <si>
-    <t>p95_degree_n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,7 +126,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -137,7 +142,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -212,23 +217,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -264,23 +252,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,21 +427,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,218 +458,254 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>166393</v>
+      </c>
+      <c r="C2">
+        <v>199781</v>
+      </c>
+      <c r="D2">
+        <v>0.75636014866322987</v>
+      </c>
+      <c r="E2">
+        <v>41235</v>
+      </c>
+      <c r="F2">
+        <v>1.322171004789865E-2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>34454</v>
+      </c>
+      <c r="I2">
+        <v>2.4013149591629461</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>60514</v>
+      </c>
+      <c r="L2">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M2">
+        <v>16206</v>
+      </c>
+      <c r="N2">
+        <v>1.07077368218897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>172448</v>
-      </c>
-      <c r="C2">
-        <v>175213</v>
-      </c>
-      <c r="D2">
-        <v>0.4665835785370242</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>80436</v>
-      </c>
-      <c r="G2">
-        <v>2.0320676377806648</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>40904</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>14071</v>
-      </c>
-      <c r="L2">
-        <v>1.27109743172814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
       <c r="B3">
-        <v>58087</v>
+        <v>58079</v>
       </c>
       <c r="C3">
-        <v>1386862</v>
+        <v>1386609</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
+        <v>1566</v>
+      </c>
+      <c r="F3">
+        <v>0.2685996659722103</v>
+      </c>
+      <c r="G3">
         <v>16</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>442</v>
       </c>
-      <c r="G3">
-        <v>47.751200785029347</v>
-      </c>
-      <c r="H3">
+      <c r="I3">
+        <v>47.749065927443652</v>
+      </c>
+      <c r="J3">
         <v>45</v>
       </c>
-      <c r="I3">
-        <v>1242</v>
-      </c>
-      <c r="J3">
+      <c r="K3">
+        <v>1150</v>
+      </c>
+      <c r="L3">
         <v>91</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>276</v>
       </c>
-      <c r="L3">
-        <v>24.081486452654829</v>
+      <c r="N3">
+        <v>24.083885823709561</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>164036</v>
+        <v>164013</v>
       </c>
       <c r="C4">
-        <v>163834</v>
+        <v>273344</v>
       </c>
       <c r="D4">
-        <v>0.48535070856229051</v>
+        <v>1</v>
       </c>
       <c r="E4">
+        <v>41627</v>
+      </c>
+      <c r="F4">
+        <v>4.633779029711059E-2</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>76263</v>
-      </c>
-      <c r="G4">
-        <v>1.9975371259967329</v>
-      </c>
       <c r="H4">
-        <v>2</v>
+        <v>8214</v>
       </c>
       <c r="I4">
-        <v>40757</v>
+        <v>3.3331991976245789</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>12879</v>
+        <v>65008</v>
       </c>
       <c r="L4">
-        <v>1.2612743423768731</v>
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>15066</v>
+      </c>
+      <c r="N4">
+        <v>2.0675257704697558</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>942386</v>
+        <v>1446817</v>
       </c>
       <c r="C5">
-        <v>4874205</v>
+        <v>58860777</v>
       </c>
       <c r="D5">
-        <v>0.19202495675514489</v>
+        <v>0.70013738236489576</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>13022</v>
       </c>
       <c r="F5">
-        <v>344398</v>
+        <v>0.92672397407550511</v>
       </c>
       <c r="G5">
-        <v>10.34439178850281</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>21488</v>
       </c>
       <c r="I5">
-        <v>71994</v>
+        <v>81.365890779552672</v>
       </c>
       <c r="J5">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="K5">
-        <v>1208</v>
+        <v>37068</v>
       </c>
       <c r="L5">
-        <v>25.680347425554341</v>
+        <v>164</v>
+      </c>
+      <c r="M5">
+        <v>3910</v>
+      </c>
+      <c r="N5">
+        <v>54.904257501963741</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>1067879</v>
+        <v>1570812</v>
       </c>
       <c r="C6">
-        <v>6442695</v>
+        <v>60538563</v>
       </c>
       <c r="D6">
-        <v>0.3304126860003585</v>
+        <v>0.70119596472334011</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>389953</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>12.066338976606939</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>44574</v>
       </c>
       <c r="I6">
-        <v>75089</v>
+        <v>77.079323305398688</v>
       </c>
       <c r="J6">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="K6">
-        <v>764</v>
+        <v>2789</v>
       </c>
       <c r="L6">
-        <v>26.799009624813721</v>
+        <v>163</v>
+      </c>
+      <c r="M6">
+        <v>4369</v>
+      </c>
+      <c r="N6">
+        <v>55.425390163192439</v>
       </c>
     </row>
   </sheetData>
